--- a/вариант/pro100ege/5/18_12927.xlsx
+++ b/вариант/pro100ege/5/18_12927.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -496,19 +498,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="20" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickTop="1">
+    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>99</v>
       </c>
@@ -570,7 +572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>17</v>
       </c>
@@ -632,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>26</v>
       </c>
@@ -694,7 +696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>70</v>
       </c>
@@ -756,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>72</v>
       </c>
@@ -818,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -880,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>18</v>
       </c>
@@ -942,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>50</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>13</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickTop="1">
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>92</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>74</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>83</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>36</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>42</v>
       </c>
@@ -1438,7 +1440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1">
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>61</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>51</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>61</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>33</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>76</v>
       </c>
@@ -1748,9 +1750,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickTop="1"/>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:20" ht="15.75" thickTop="1">
+    <row r="21" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f>A1</f>
         <v>99</v>
@@ -1760,7 +1762,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="24">
-        <f t="shared" ref="C23:T23" si="0">B23+C1</f>
+        <f t="shared" ref="C23:G23" si="0">B23+C1</f>
         <v>242</v>
       </c>
       <c r="D23" s="24">
@@ -1793,33 +1795,33 @@
       <c r="S23" s="13"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <f>A23+A2</f>
         <v>116</v>
       </c>
       <c r="B24" s="16">
-        <f>MAX(A24,B23)+B2</f>
+        <f t="shared" ref="B24:G26" si="1">MAX(A24,B23)+B2</f>
         <v>196</v>
       </c>
       <c r="C24" s="16">
-        <f>MAX(B24,C23)+C2</f>
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
       <c r="D24" s="16">
-        <f>MAX(C24,D23)+D2</f>
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="E24" s="16">
-        <f>MAX(D24,E23)+E2</f>
+        <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="F24" s="16">
-        <f>MAX(E24,F23)+F2</f>
+        <f t="shared" si="1"/>
         <v>501</v>
       </c>
       <c r="G24" s="17">
-        <f>MAX(F24,G23)+G2</f>
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
       <c r="H24" s="16"/>
@@ -1836,33 +1838,33 @@
       <c r="S24" s="16"/>
       <c r="T24" s="17"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <f t="shared" ref="A25:A42" si="1">A24+A3</f>
+        <f t="shared" ref="A25:A42" si="2">A24+A3</f>
         <v>142</v>
       </c>
       <c r="B25" s="16">
-        <f>MAX(A25,B24)+B3</f>
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="C25" s="16">
-        <f>MAX(B25,C24)+C3</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="D25" s="16">
-        <f>MAX(C25,D24)+D3</f>
+        <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="E25" s="16">
-        <f>MAX(D25,E24)+E3</f>
+        <f t="shared" si="1"/>
         <v>465</v>
       </c>
       <c r="F25" s="16">
-        <f>MAX(E25,F24)+F3</f>
+        <f t="shared" si="1"/>
         <v>554</v>
       </c>
       <c r="G25" s="17">
-        <f>MAX(F25,G24)+G3</f>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="H25" s="18"/>
@@ -1879,33 +1881,33 @@
       <c r="S25" s="16"/>
       <c r="T25" s="17"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="B26" s="16">
         <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="B26" s="16">
-        <f>MAX(A26,B25)+B4</f>
         <v>291</v>
       </c>
       <c r="C26" s="16">
-        <f>MAX(B26,C25)+C4</f>
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
       <c r="D26" s="16">
-        <f>MAX(C26,D25)+D4</f>
+        <f t="shared" si="1"/>
         <v>437</v>
       </c>
       <c r="E26" s="16">
-        <f>MAX(D26,E25)+E4</f>
+        <f t="shared" si="1"/>
         <v>479</v>
       </c>
       <c r="F26" s="16">
-        <f>MAX(E26,F25)+F4</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="G26" s="16">
-        <f>MAX(F26,G25)+G4</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="H26" s="15"/>
@@ -1922,33 +1924,33 @@
       <c r="S26" s="16"/>
       <c r="T26" s="17"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>284</v>
       </c>
       <c r="B27" s="24">
-        <f t="shared" ref="B27:D27" si="2">A27+B5</f>
+        <f t="shared" ref="B27:D27" si="3">A27+B5</f>
         <v>361</v>
       </c>
       <c r="C27" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>422</v>
       </c>
       <c r="D27" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>471</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" ref="E27:E36" si="3">E26+E5</f>
+        <f t="shared" ref="E27:E36" si="4">E26+E5</f>
         <v>493</v>
       </c>
       <c r="F27" s="16">
-        <f>MAX(E27,F26)+F5</f>
+        <f t="shared" ref="F27:F42" si="5">MAX(E27,F26)+F5</f>
         <v>664</v>
       </c>
       <c r="G27" s="16">
-        <f>MAX(F27,G26)+G5</f>
+        <f t="shared" ref="G27:G42" si="6">MAX(F27,G26)+G5</f>
         <v>706</v>
       </c>
       <c r="H27" s="15"/>
@@ -1965,33 +1967,33 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304</v>
       </c>
       <c r="B28" s="16">
-        <f>MAX(A28,B27)+B6</f>
+        <f t="shared" ref="B28:B42" si="7">MAX(A28,B27)+B6</f>
         <v>410</v>
       </c>
       <c r="C28" s="16">
-        <f>MAX(B28,C27)+C6</f>
+        <f t="shared" ref="C28:C42" si="8">MAX(B28,C27)+C6</f>
         <v>453</v>
       </c>
       <c r="D28" s="17">
-        <f>MAX(C28,D27)+D6</f>
+        <f t="shared" ref="D28:D42" si="9">MAX(C28,D27)+D6</f>
         <v>477</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="F28" s="16">
-        <f>MAX(E28,F27)+F6</f>
+        <f t="shared" si="5"/>
         <v>727</v>
       </c>
       <c r="G28" s="16">
-        <f>MAX(F28,G27)+G6</f>
+        <f t="shared" si="6"/>
         <v>745</v>
       </c>
       <c r="H28" s="15"/>
@@ -2008,33 +2010,33 @@
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="B29" s="16">
-        <f>MAX(A29,B28)+B7</f>
+        <f t="shared" si="7"/>
         <v>485</v>
       </c>
       <c r="C29" s="16">
-        <f>MAX(B29,C28)+C7</f>
+        <f t="shared" si="8"/>
         <v>549</v>
       </c>
       <c r="D29" s="17">
-        <f>MAX(C29,D28)+D7</f>
+        <f t="shared" si="9"/>
         <v>592</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
       <c r="F29" s="16">
-        <f>MAX(E29,F28)+F7</f>
+        <f t="shared" si="5"/>
         <v>739</v>
       </c>
       <c r="G29" s="16">
-        <f>MAX(F29,G28)+G7</f>
+        <f t="shared" si="6"/>
         <v>755</v>
       </c>
       <c r="H29" s="15"/>
@@ -2051,33 +2053,33 @@
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>372</v>
       </c>
       <c r="B30" s="16">
-        <f>MAX(A30,B29)+B8</f>
+        <f t="shared" si="7"/>
         <v>552</v>
       </c>
       <c r="C30" s="16">
-        <f>MAX(B30,C29)+C8</f>
+        <f t="shared" si="8"/>
         <v>619</v>
       </c>
       <c r="D30" s="17">
-        <f>MAX(C30,D29)+D8</f>
+        <f t="shared" si="9"/>
         <v>664</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>623</v>
       </c>
       <c r="F30" s="16">
-        <f>MAX(E30,F29)+F8</f>
+        <f t="shared" si="5"/>
         <v>787</v>
       </c>
       <c r="G30" s="16">
-        <f>MAX(F30,G29)+G8</f>
+        <f t="shared" si="6"/>
         <v>802</v>
       </c>
       <c r="H30" s="15"/>
@@ -2094,33 +2096,33 @@
       <c r="S30" s="16"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="B31" s="16">
-        <f>MAX(A31,B30)+B9</f>
+        <f t="shared" si="7"/>
         <v>612</v>
       </c>
       <c r="C31" s="16">
-        <f>MAX(B31,C30)+C9</f>
+        <f t="shared" si="8"/>
         <v>679</v>
       </c>
       <c r="D31" s="17">
-        <f>MAX(C31,D30)+D9</f>
+        <f t="shared" si="9"/>
         <v>752</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>690</v>
       </c>
       <c r="F31" s="16">
-        <f>MAX(E31,F30)+F9</f>
+        <f t="shared" si="5"/>
         <v>850</v>
       </c>
       <c r="G31" s="16">
-        <f>MAX(F31,G30)+G9</f>
+        <f t="shared" si="6"/>
         <v>861</v>
       </c>
       <c r="H31" s="21"/>
@@ -2137,874 +2139,874 @@
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickTop="1">
+    <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>477</v>
       </c>
       <c r="B32" s="16">
-        <f>MAX(A32,B31)+B10</f>
+        <f t="shared" si="7"/>
         <v>667</v>
       </c>
       <c r="C32" s="16">
-        <f>MAX(B32,C31)+C10</f>
+        <f t="shared" si="8"/>
         <v>704</v>
       </c>
       <c r="D32" s="17">
-        <f>MAX(C32,D31)+D10</f>
+        <f t="shared" si="9"/>
         <v>823</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="F32" s="16">
-        <f>MAX(E32,F31)+F10</f>
+        <f t="shared" si="5"/>
         <v>887</v>
       </c>
       <c r="G32" s="16">
-        <f>MAX(F32,G31)+G10</f>
+        <f t="shared" si="6"/>
         <v>907</v>
       </c>
       <c r="H32" s="16">
-        <f>MAX(G32,H31)+H10</f>
+        <f t="shared" ref="H32:R35" si="10">MAX(G32,H31)+H10</f>
         <v>920</v>
       </c>
       <c r="I32" s="16">
-        <f>MAX(H32,I31)+I10</f>
+        <f t="shared" si="10"/>
         <v>939</v>
       </c>
       <c r="J32" s="16">
-        <f>MAX(I32,J31)+J10</f>
+        <f t="shared" si="10"/>
         <v>951</v>
       </c>
       <c r="K32" s="16">
-        <f>MAX(J32,K31)+K10</f>
+        <f t="shared" si="10"/>
         <v>960</v>
       </c>
       <c r="L32" s="16">
-        <f>MAX(K32,L31)+L10</f>
+        <f t="shared" si="10"/>
         <v>968</v>
       </c>
       <c r="M32" s="16">
-        <f>MAX(L32,M31)+M10</f>
+        <f t="shared" si="10"/>
         <v>980</v>
       </c>
       <c r="N32" s="16">
-        <f>MAX(M32,N31)+N10</f>
+        <f t="shared" si="10"/>
         <v>1002</v>
       </c>
       <c r="O32" s="16">
-        <f>MAX(N32,O31)+O10</f>
+        <f t="shared" si="10"/>
         <v>1028</v>
       </c>
       <c r="P32" s="16">
-        <f>MAX(O32,P31)+P10</f>
+        <f t="shared" si="10"/>
         <v>1044</v>
       </c>
       <c r="Q32" s="16">
-        <f>MAX(P32,Q31)+Q10</f>
+        <f t="shared" si="10"/>
         <v>1081</v>
       </c>
       <c r="R32" s="17">
-        <f>MAX(Q32,R31)+R10</f>
+        <f t="shared" si="10"/>
         <v>1159</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>551</v>
       </c>
       <c r="B33" s="16">
-        <f>MAX(A33,B32)+B11</f>
+        <f t="shared" si="7"/>
         <v>741</v>
       </c>
       <c r="C33" s="16">
-        <f>MAX(B33,C32)+C11</f>
+        <f t="shared" si="8"/>
         <v>833</v>
       </c>
       <c r="D33" s="17">
-        <f>MAX(C33,D32)+D11</f>
+        <f t="shared" si="9"/>
         <v>915</v>
       </c>
       <c r="E33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>787</v>
       </c>
       <c r="F33" s="16">
-        <f>MAX(E33,F32)+F11</f>
+        <f t="shared" si="5"/>
         <v>927</v>
       </c>
       <c r="G33" s="16">
-        <f>MAX(F33,G32)+G11</f>
+        <f t="shared" si="6"/>
         <v>939</v>
       </c>
       <c r="H33" s="16">
-        <f>MAX(G33,H32)+H11</f>
+        <f t="shared" si="10"/>
         <v>945</v>
       </c>
       <c r="I33" s="16">
-        <f>MAX(H33,I32)+I11</f>
+        <f t="shared" si="10"/>
         <v>954</v>
       </c>
       <c r="J33" s="16">
-        <f>MAX(I33,J32)+J11</f>
+        <f t="shared" si="10"/>
         <v>965</v>
       </c>
       <c r="K33" s="16">
-        <f>MAX(J33,K32)+K11</f>
+        <f t="shared" si="10"/>
         <v>983</v>
       </c>
       <c r="L33" s="16">
-        <f>MAX(K33,L32)+L11</f>
+        <f t="shared" si="10"/>
         <v>1003</v>
       </c>
       <c r="M33" s="16">
-        <f>MAX(L33,M32)+M11</f>
+        <f t="shared" si="10"/>
         <v>1008</v>
       </c>
       <c r="N33" s="16">
-        <f>MAX(M33,N32)+N11</f>
+        <f t="shared" si="10"/>
         <v>1063</v>
       </c>
       <c r="O33" s="16">
-        <f>MAX(N33,O32)+O11</f>
+        <f t="shared" si="10"/>
         <v>1115</v>
       </c>
       <c r="P33" s="16">
-        <f>MAX(O33,P32)+P11</f>
+        <f t="shared" si="10"/>
         <v>1180</v>
       </c>
       <c r="Q33" s="16">
-        <f>MAX(P33,Q32)+Q11</f>
+        <f t="shared" si="10"/>
         <v>1229</v>
       </c>
       <c r="R33" s="17">
-        <f>MAX(Q33,R32)+R11</f>
+        <f t="shared" si="10"/>
         <v>1246</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="B34" s="16">
-        <f>MAX(A34,B33)+B12</f>
+        <f t="shared" si="7"/>
         <v>783</v>
       </c>
       <c r="C34" s="16">
-        <f>MAX(B34,C33)+C12</f>
+        <f t="shared" si="8"/>
         <v>881</v>
       </c>
       <c r="D34" s="17">
-        <f>MAX(C34,D33)+D12</f>
+        <f t="shared" si="9"/>
         <v>944</v>
       </c>
       <c r="E34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>886</v>
       </c>
       <c r="F34" s="16">
-        <f>MAX(E34,F33)+F12</f>
+        <f t="shared" si="5"/>
         <v>988</v>
       </c>
       <c r="G34" s="16">
-        <f>MAX(F34,G33)+G12</f>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
       <c r="H34" s="16">
-        <f>MAX(G34,H33)+H12</f>
+        <f t="shared" si="10"/>
         <v>1014</v>
       </c>
       <c r="I34" s="16">
-        <f>MAX(H34,I33)+I12</f>
+        <f t="shared" si="10"/>
         <v>1028</v>
       </c>
       <c r="J34" s="16">
-        <f>MAX(I34,J33)+J12</f>
+        <f t="shared" si="10"/>
         <v>1034</v>
       </c>
       <c r="K34" s="16">
-        <f>MAX(J34,K33)+K12</f>
+        <f t="shared" si="10"/>
         <v>1051</v>
       </c>
       <c r="L34" s="16">
-        <f>MAX(K34,L33)+L12</f>
+        <f t="shared" si="10"/>
         <v>1066</v>
       </c>
       <c r="M34" s="16">
-        <f>MAX(L34,M33)+M12</f>
+        <f t="shared" si="10"/>
         <v>1074</v>
       </c>
       <c r="N34" s="16">
-        <f>MAX(M34,N33)+N12</f>
+        <f t="shared" si="10"/>
         <v>1102</v>
       </c>
       <c r="O34" s="16">
-        <f>MAX(N34,O33)+O12</f>
+        <f t="shared" si="10"/>
         <v>1185</v>
       </c>
       <c r="P34" s="16">
-        <f>MAX(O34,P33)+P12</f>
+        <f t="shared" si="10"/>
         <v>1215</v>
       </c>
       <c r="Q34" s="16">
-        <f>MAX(P34,Q33)+Q12</f>
+        <f t="shared" si="10"/>
         <v>1304</v>
       </c>
       <c r="R34" s="17">
-        <f>MAX(Q34,R33)+R12</f>
+        <f t="shared" si="10"/>
         <v>1330</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>684</v>
       </c>
       <c r="B35" s="16">
-        <f>MAX(A35,B34)+B13</f>
+        <f t="shared" si="7"/>
         <v>865</v>
       </c>
       <c r="C35" s="16">
-        <f>MAX(B35,C34)+C13</f>
+        <f t="shared" si="8"/>
         <v>911</v>
       </c>
       <c r="D35" s="17">
-        <f>MAX(C35,D34)+D13</f>
+        <f t="shared" si="9"/>
         <v>973</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>957</v>
       </c>
       <c r="F35" s="16">
-        <f>MAX(E35,F34)+F13</f>
+        <f t="shared" si="5"/>
         <v>1044</v>
       </c>
       <c r="G35" s="16">
-        <f>MAX(F35,G34)+G13</f>
+        <f t="shared" si="6"/>
         <v>1064</v>
       </c>
       <c r="H35" s="16">
-        <f>MAX(G35,H34)+H13</f>
+        <f t="shared" si="10"/>
         <v>1071</v>
       </c>
       <c r="I35" s="16">
-        <f>MAX(H35,I34)+I13</f>
+        <f t="shared" si="10"/>
         <v>1089</v>
       </c>
       <c r="J35" s="16">
-        <f>MAX(I35,J34)+J13</f>
+        <f t="shared" si="10"/>
         <v>1094</v>
       </c>
       <c r="K35" s="16">
-        <f>MAX(J35,K34)+K13</f>
+        <f t="shared" si="10"/>
         <v>1104</v>
       </c>
       <c r="L35" s="16">
-        <f>MAX(K35,L34)+L13</f>
+        <f t="shared" si="10"/>
         <v>1120</v>
       </c>
       <c r="M35" s="16">
-        <f>MAX(L35,M34)+M13</f>
+        <f t="shared" si="10"/>
         <v>1138</v>
       </c>
       <c r="N35" s="16">
-        <f>MAX(M35,N34)+N13</f>
+        <f t="shared" si="10"/>
         <v>1149</v>
       </c>
       <c r="O35" s="16">
-        <f>MAX(N35,O34)+O13</f>
+        <f t="shared" si="10"/>
         <v>1199</v>
       </c>
       <c r="P35" s="16">
-        <f>MAX(O35,P34)+P13</f>
+        <f t="shared" si="10"/>
         <v>1267</v>
       </c>
       <c r="Q35" s="16">
-        <f>MAX(P35,Q34)+Q13</f>
+        <f t="shared" si="10"/>
         <v>1363</v>
       </c>
       <c r="R35" s="17">
-        <f>MAX(Q35,R34)+R13</f>
+        <f t="shared" si="10"/>
         <v>1428</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickTop="1">
+    <row r="36" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="B36" s="16">
-        <f>MAX(A36,B35)+B14</f>
+        <f t="shared" si="7"/>
         <v>903</v>
       </c>
       <c r="C36" s="16">
-        <f>MAX(B36,C35)+C14</f>
+        <f t="shared" si="8"/>
         <v>972</v>
       </c>
       <c r="D36" s="17">
-        <f>MAX(C36,D35)+D14</f>
+        <f t="shared" si="9"/>
         <v>1006</v>
       </c>
       <c r="E36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1015</v>
       </c>
       <c r="F36" s="16">
-        <f>MAX(E36,F35)+F14</f>
+        <f t="shared" si="5"/>
         <v>1122</v>
       </c>
       <c r="G36" s="16">
-        <f>MAX(F36,G35)+G14</f>
+        <f t="shared" si="6"/>
         <v>1133</v>
       </c>
       <c r="H36" s="16">
-        <f>MAX(G36,H35)+H14</f>
+        <f t="shared" ref="H36:H42" si="11">MAX(G36,H35)+H14</f>
         <v>1195</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" ref="I36:L36" si="4">H36+I14</f>
+        <f t="shared" ref="I36:L36" si="12">H36+I14</f>
         <v>1210</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1241</v>
       </c>
       <c r="K36" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1303</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1345</v>
       </c>
       <c r="M36" s="26">
-        <f t="shared" ref="M36:M42" si="5">M35+M14</f>
+        <f t="shared" ref="M36:M42" si="13">M35+M14</f>
         <v>1167</v>
       </c>
       <c r="N36" s="16">
-        <f>MAX(M36,N35)+N14</f>
+        <f t="shared" ref="N36:R37" si="14">MAX(M36,N35)+N14</f>
         <v>1222</v>
       </c>
       <c r="O36" s="16">
-        <f>MAX(N36,O35)+O14</f>
+        <f t="shared" si="14"/>
         <v>1247</v>
       </c>
       <c r="P36" s="16">
-        <f>MAX(O36,P35)+P14</f>
+        <f t="shared" si="14"/>
         <v>1303</v>
       </c>
       <c r="Q36" s="16">
-        <f>MAX(P36,Q35)+Q14</f>
+        <f t="shared" si="14"/>
         <v>1415</v>
       </c>
       <c r="R36" s="17">
-        <f>MAX(Q36,R35)+R14</f>
+        <f t="shared" si="14"/>
         <v>1446</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>762</v>
       </c>
       <c r="B37" s="16">
-        <f>MAX(A37,B36)+B15</f>
+        <f t="shared" si="7"/>
         <v>948</v>
       </c>
       <c r="C37" s="16">
-        <f>MAX(B37,C36)+C15</f>
+        <f t="shared" si="8"/>
         <v>1066</v>
       </c>
       <c r="D37" s="16">
-        <f>MAX(C37,D36)+D15</f>
+        <f t="shared" si="9"/>
         <v>1151</v>
       </c>
       <c r="E37" s="16">
-        <f>MAX(D37,E36)+E15</f>
+        <f t="shared" ref="E37:E42" si="15">MAX(D37,E36)+E15</f>
         <v>1240</v>
       </c>
       <c r="F37" s="16">
-        <f>MAX(E37,F36)+F15</f>
+        <f t="shared" si="5"/>
         <v>1303</v>
       </c>
       <c r="G37" s="16">
-        <f>MAX(F37,G36)+G15</f>
+        <f t="shared" si="6"/>
         <v>1320</v>
       </c>
       <c r="H37" s="16">
-        <f>MAX(G37,H36)+H15</f>
+        <f t="shared" si="11"/>
         <v>1342</v>
       </c>
       <c r="I37" s="16">
-        <f>MAX(H37,I36)+I15</f>
+        <f t="shared" ref="I37:L42" si="16">MAX(H37,I36)+I15</f>
         <v>1419</v>
       </c>
       <c r="J37" s="16">
-        <f>MAX(I37,J36)+J15</f>
+        <f t="shared" si="16"/>
         <v>1471</v>
       </c>
       <c r="K37" s="16">
-        <f>MAX(J37,K36)+K15</f>
+        <f t="shared" si="16"/>
         <v>1515</v>
       </c>
       <c r="L37" s="17">
-        <f>MAX(K37,L36)+L15</f>
+        <f t="shared" si="16"/>
         <v>1580</v>
       </c>
       <c r="M37" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1199</v>
       </c>
       <c r="N37" s="16">
-        <f>MAX(M37,N36)+N15</f>
+        <f t="shared" si="14"/>
         <v>1285</v>
       </c>
       <c r="O37" s="16">
-        <f>MAX(N37,O36)+O15</f>
+        <f t="shared" si="14"/>
         <v>1296</v>
       </c>
       <c r="P37" s="22">
-        <f>MAX(O37,P36)+P15</f>
+        <f t="shared" si="14"/>
         <v>1377</v>
       </c>
       <c r="Q37" s="22">
-        <f>MAX(P37,Q36)+Q15</f>
+        <f t="shared" si="14"/>
         <v>1468</v>
       </c>
       <c r="R37" s="23">
-        <f>MAX(Q37,R36)+R15</f>
+        <f t="shared" si="14"/>
         <v>1524</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" thickTop="1">
+    <row r="38" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>823</v>
       </c>
       <c r="B38" s="16">
-        <f>MAX(A38,B37)+B16</f>
+        <f t="shared" si="7"/>
         <v>980</v>
       </c>
       <c r="C38" s="16">
-        <f>MAX(B38,C37)+C16</f>
+        <f t="shared" si="8"/>
         <v>1091</v>
       </c>
       <c r="D38" s="16">
-        <f>MAX(C38,D37)+D16</f>
+        <f t="shared" si="9"/>
         <v>1236</v>
       </c>
       <c r="E38" s="16">
-        <f>MAX(D38,E37)+E16</f>
+        <f t="shared" si="15"/>
         <v>1282</v>
       </c>
       <c r="F38" s="16">
-        <f>MAX(E38,F37)+F16</f>
+        <f t="shared" si="5"/>
         <v>1382</v>
       </c>
       <c r="G38" s="16">
-        <f>MAX(F38,G37)+G16</f>
+        <f t="shared" si="6"/>
         <v>1450</v>
       </c>
       <c r="H38" s="16">
-        <f>MAX(G38,H37)+H16</f>
+        <f t="shared" si="11"/>
         <v>1514</v>
       </c>
       <c r="I38" s="16">
-        <f>MAX(H38,I37)+I16</f>
+        <f t="shared" si="16"/>
         <v>1550</v>
       </c>
       <c r="J38" s="16">
-        <f>MAX(I38,J37)+J16</f>
+        <f t="shared" si="16"/>
         <v>1575</v>
       </c>
       <c r="K38" s="16">
-        <f>MAX(J38,K37)+K16</f>
+        <f t="shared" si="16"/>
         <v>1628</v>
       </c>
       <c r="L38" s="17">
-        <f>MAX(K38,L37)+L16</f>
+        <f t="shared" si="16"/>
         <v>1684</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1245</v>
       </c>
       <c r="N38" s="16">
-        <f>MAX(M38,N37)+N16</f>
+        <f t="shared" ref="N38:O42" si="17">MAX(M38,N37)+N16</f>
         <v>1335</v>
       </c>
       <c r="O38" s="16">
-        <f>MAX(N38,O37)+O16</f>
+        <f t="shared" si="17"/>
         <v>1390</v>
       </c>
       <c r="P38" s="24">
-        <f t="shared" ref="P38:R38" si="6">O38+P16</f>
+        <f t="shared" ref="P38:R38" si="18">O38+P16</f>
         <v>1461</v>
       </c>
       <c r="Q38" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1523</v>
       </c>
       <c r="R38" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1567</v>
       </c>
       <c r="S38" s="16">
-        <f>MAX(R38,S37)+S16</f>
+        <f t="shared" ref="S38:T42" si="19">MAX(R38,S37)+S16</f>
         <v>1609</v>
       </c>
       <c r="T38" s="17">
-        <f>MAX(S38,T37)+T16</f>
+        <f t="shared" si="19"/>
         <v>1630</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>874</v>
       </c>
       <c r="B39" s="16">
-        <f>MAX(A39,B38)+B17</f>
+        <f t="shared" si="7"/>
         <v>1057</v>
       </c>
       <c r="C39" s="16">
-        <f>MAX(B39,C38)+C17</f>
+        <f t="shared" si="8"/>
         <v>1191</v>
       </c>
       <c r="D39" s="16">
-        <f>MAX(C39,D38)+D17</f>
+        <f t="shared" si="9"/>
         <v>1288</v>
       </c>
       <c r="E39" s="16">
-        <f>MAX(D39,E38)+E17</f>
+        <f t="shared" si="15"/>
         <v>1388</v>
       </c>
       <c r="F39" s="16">
-        <f>MAX(E39,F38)+F17</f>
-        <v>1404</v>
-      </c>
-      <c r="G39" s="16">
-        <f>MAX(F39,G38)+G17</f>
-        <v>1500</v>
-      </c>
-      <c r="H39" s="16">
-        <f>MAX(G39,H38)+H17</f>
-        <v>1555</v>
-      </c>
-      <c r="I39" s="16">
-        <f>MAX(H39,I38)+I17</f>
-        <v>1617</v>
-      </c>
-      <c r="J39" s="16">
-        <f>MAX(I39,J38)+J17</f>
-        <v>1662</v>
-      </c>
-      <c r="K39" s="16">
-        <f>MAX(J39,K38)+K17</f>
-        <v>1682</v>
-      </c>
-      <c r="L39" s="17">
-        <f>MAX(K39,L38)+L17</f>
-        <v>1696</v>
-      </c>
-      <c r="M39" s="26">
-        <f t="shared" si="5"/>
-        <v>1324</v>
-      </c>
-      <c r="N39" s="16">
-        <f>MAX(M39,N38)+N17</f>
-        <v>1404</v>
-      </c>
-      <c r="O39" s="16">
-        <f>MAX(N39,O38)+O17</f>
-        <v>1467</v>
-      </c>
-      <c r="P39" s="16">
-        <f>MAX(O39,P38)+P17</f>
-        <v>1537</v>
-      </c>
-      <c r="Q39" s="16">
-        <f>MAX(P39,Q38)+Q17</f>
-        <v>1588</v>
-      </c>
-      <c r="R39" s="16">
-        <f>MAX(Q39,R38)+R17</f>
-        <v>1611</v>
-      </c>
-      <c r="S39" s="16">
-        <f>MAX(R39,S38)+S17</f>
-        <v>1645</v>
-      </c>
-      <c r="T39" s="17">
-        <f>MAX(S39,T38)+T17</f>
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="26">
-        <f t="shared" si="1"/>
-        <v>935</v>
-      </c>
-      <c r="B40" s="16">
-        <f>MAX(A40,B39)+B18</f>
-        <v>1094</v>
-      </c>
-      <c r="C40" s="16">
-        <f>MAX(B40,C39)+C18</f>
-        <v>1283</v>
-      </c>
-      <c r="D40" s="16">
-        <f>MAX(C40,D39)+D18</f>
-        <v>1387</v>
-      </c>
-      <c r="E40" s="16">
-        <f>MAX(D40,E39)+E18</f>
-        <v>1436</v>
-      </c>
-      <c r="F40" s="16">
-        <f>MAX(E40,F39)+F18</f>
-        <v>1474</v>
-      </c>
-      <c r="G40" s="16">
-        <f>MAX(F40,G39)+G18</f>
-        <v>1517</v>
-      </c>
-      <c r="H40" s="16">
-        <f>MAX(G40,H39)+H18</f>
-        <v>1600</v>
-      </c>
-      <c r="I40" s="16">
-        <f>MAX(H40,I39)+I18</f>
-        <v>1665</v>
-      </c>
-      <c r="J40" s="16">
-        <f>MAX(I40,J39)+J18</f>
-        <v>1719</v>
-      </c>
-      <c r="K40" s="16">
-        <f>MAX(J40,K39)+K18</f>
-        <v>1792</v>
-      </c>
-      <c r="L40" s="17">
-        <f>MAX(K40,L39)+L18</f>
-        <v>1855</v>
-      </c>
-      <c r="M40" s="26">
-        <f t="shared" si="5"/>
-        <v>1388</v>
-      </c>
-      <c r="N40" s="16">
-        <f>MAX(M40,N39)+N18</f>
-        <v>1470</v>
-      </c>
-      <c r="O40" s="16">
-        <f>MAX(N40,O39)+O18</f>
-        <v>1532</v>
-      </c>
-      <c r="P40" s="16">
-        <f>MAX(O40,P39)+P18</f>
-        <v>1569</v>
-      </c>
-      <c r="Q40" s="16">
-        <f>MAX(P40,Q39)+Q18</f>
-        <v>1597</v>
-      </c>
-      <c r="R40" s="16">
-        <f>MAX(Q40,R39)+R18</f>
-        <v>1688</v>
-      </c>
-      <c r="S40" s="16">
-        <f>MAX(R40,S39)+S18</f>
-        <v>1748</v>
-      </c>
-      <c r="T40" s="17">
-        <f>MAX(S40,T39)+T18</f>
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="26">
-        <f t="shared" si="1"/>
-        <v>968</v>
-      </c>
-      <c r="B41" s="16">
-        <f>MAX(A41,B40)+B19</f>
-        <v>1130</v>
-      </c>
-      <c r="C41" s="16">
-        <f>MAX(B41,C40)+C19</f>
-        <v>1371</v>
-      </c>
-      <c r="D41" s="16">
-        <f>MAX(C41,D40)+D19</f>
-        <v>1471</v>
-      </c>
-      <c r="E41" s="16">
-        <f>MAX(D41,E40)+E19</f>
-        <v>1544</v>
-      </c>
-      <c r="F41" s="16">
-        <f>MAX(E41,F40)+F19</f>
-        <v>1620</v>
-      </c>
-      <c r="G41" s="16">
-        <f>MAX(F41,G40)+G19</f>
-        <v>1658</v>
-      </c>
-      <c r="H41" s="16">
-        <f>MAX(G41,H40)+H19</f>
-        <v>1736</v>
-      </c>
-      <c r="I41" s="16">
-        <f>MAX(H41,I40)+I19</f>
-        <v>1752</v>
-      </c>
-      <c r="J41" s="16">
-        <f>MAX(I41,J40)+J19</f>
-        <v>1828</v>
-      </c>
-      <c r="K41" s="16">
-        <f>MAX(J41,K40)+K19</f>
-        <v>1864</v>
-      </c>
-      <c r="L41" s="17">
-        <f>MAX(K41,L40)+L19</f>
-        <v>1881</v>
-      </c>
-      <c r="M41" s="26">
         <f t="shared" si="5"/>
         <v>1404</v>
       </c>
+      <c r="G39" s="16">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="11"/>
+        <v>1555</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="16"/>
+        <v>1617</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="16"/>
+        <v>1662</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="16"/>
+        <v>1682</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="16"/>
+        <v>1696</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" si="13"/>
+        <v>1324</v>
+      </c>
+      <c r="N39" s="16">
+        <f t="shared" si="17"/>
+        <v>1404</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="17"/>
+        <v>1467</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" ref="P39:R42" si="20">MAX(O39,P38)+P17</f>
+        <v>1537</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="20"/>
+        <v>1588</v>
+      </c>
+      <c r="R39" s="16">
+        <f t="shared" si="20"/>
+        <v>1611</v>
+      </c>
+      <c r="S39" s="16">
+        <f t="shared" si="19"/>
+        <v>1645</v>
+      </c>
+      <c r="T39" s="17">
+        <f t="shared" si="19"/>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <f t="shared" si="2"/>
+        <v>935</v>
+      </c>
+      <c r="B40" s="16">
+        <f t="shared" si="7"/>
+        <v>1094</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="8"/>
+        <v>1283</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="9"/>
+        <v>1387</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="15"/>
+        <v>1436</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="5"/>
+        <v>1474</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="6"/>
+        <v>1517</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="11"/>
+        <v>1600</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="16"/>
+        <v>1665</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="16"/>
+        <v>1719</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="16"/>
+        <v>1792</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="16"/>
+        <v>1855</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="13"/>
+        <v>1388</v>
+      </c>
+      <c r="N40" s="16">
+        <f t="shared" si="17"/>
+        <v>1470</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="17"/>
+        <v>1532</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" si="20"/>
+        <v>1569</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="20"/>
+        <v>1597</v>
+      </c>
+      <c r="R40" s="16">
+        <f t="shared" si="20"/>
+        <v>1688</v>
+      </c>
+      <c r="S40" s="16">
+        <f t="shared" si="19"/>
+        <v>1748</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="19"/>
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <f t="shared" si="2"/>
+        <v>968</v>
+      </c>
+      <c r="B41" s="16">
+        <f t="shared" si="7"/>
+        <v>1130</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="8"/>
+        <v>1371</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="9"/>
+        <v>1471</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="15"/>
+        <v>1544</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="5"/>
+        <v>1620</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="6"/>
+        <v>1658</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="11"/>
+        <v>1736</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="16"/>
+        <v>1752</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="16"/>
+        <v>1828</v>
+      </c>
+      <c r="K41" s="16">
+        <f t="shared" si="16"/>
+        <v>1864</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="16"/>
+        <v>1881</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="13"/>
+        <v>1404</v>
+      </c>
       <c r="N41" s="16">
-        <f>MAX(M41,N40)+N19</f>
+        <f t="shared" si="17"/>
         <v>1489</v>
       </c>
       <c r="O41" s="16">
-        <f>MAX(N41,O40)+O19</f>
+        <f t="shared" si="17"/>
         <v>1545</v>
       </c>
       <c r="P41" s="16">
-        <f>MAX(O41,P40)+P19</f>
+        <f t="shared" si="20"/>
         <v>1602</v>
       </c>
       <c r="Q41" s="16">
-        <f>MAX(P41,Q40)+Q19</f>
+        <f t="shared" si="20"/>
         <v>1622</v>
       </c>
       <c r="R41" s="16">
-        <f>MAX(Q41,R40)+R19</f>
+        <f t="shared" si="20"/>
         <v>1704</v>
       </c>
       <c r="S41" s="16">
-        <f>MAX(R41,S40)+S19</f>
+        <f t="shared" si="19"/>
         <v>1785</v>
       </c>
       <c r="T41" s="17">
-        <f>MAX(S41,T40)+T19</f>
+        <f t="shared" si="19"/>
         <v>1857</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1044</v>
       </c>
       <c r="B42" s="22">
-        <f>MAX(A42,B41)+B20</f>
+        <f t="shared" si="7"/>
         <v>1203</v>
       </c>
       <c r="C42" s="22">
-        <f>MAX(B42,C41)+C20</f>
+        <f t="shared" si="8"/>
         <v>1447</v>
       </c>
       <c r="D42" s="22">
-        <f>MAX(C42,D41)+D20</f>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="E42" s="22">
-        <f>MAX(D42,E41)+E20</f>
+        <f t="shared" si="15"/>
         <v>1593</v>
       </c>
       <c r="F42" s="22">
-        <f>MAX(E42,F41)+F20</f>
+        <f t="shared" si="5"/>
         <v>1648</v>
       </c>
       <c r="G42" s="22">
-        <f>MAX(F42,G41)+G20</f>
+        <f t="shared" si="6"/>
         <v>1674</v>
       </c>
       <c r="H42" s="22">
-        <f>MAX(G42,H41)+H20</f>
+        <f t="shared" si="11"/>
         <v>1809</v>
       </c>
       <c r="I42" s="22">
-        <f>MAX(H42,I41)+I20</f>
+        <f t="shared" si="16"/>
         <v>1863</v>
       </c>
       <c r="J42" s="22">
-        <f>MAX(I42,J41)+J20</f>
+        <f t="shared" si="16"/>
         <v>1893</v>
       </c>
       <c r="K42" s="22">
-        <f>MAX(J42,K41)+K20</f>
+        <f t="shared" si="16"/>
         <v>1937</v>
       </c>
       <c r="L42" s="23">
-        <f>MAX(K42,L41)+L20</f>
+        <f t="shared" si="16"/>
         <v>1981</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1453</v>
       </c>
       <c r="N42" s="22">
-        <f>MAX(M42,N41)+N20</f>
+        <f t="shared" si="17"/>
         <v>1501</v>
       </c>
       <c r="O42" s="22">
-        <f>MAX(N42,O41)+O20</f>
+        <f t="shared" si="17"/>
         <v>1581</v>
       </c>
       <c r="P42" s="22">
-        <f>MAX(O42,P41)+P20</f>
+        <f t="shared" si="20"/>
         <v>1673</v>
       </c>
       <c r="Q42" s="22">
-        <f>MAX(P42,Q41)+Q20</f>
+        <f t="shared" si="20"/>
         <v>1743</v>
       </c>
       <c r="R42" s="22">
-        <f>MAX(Q42,R41)+R20</f>
+        <f t="shared" si="20"/>
         <v>1799</v>
       </c>
       <c r="S42" s="22">
-        <f>MAX(R42,S41)+S20</f>
+        <f t="shared" si="19"/>
         <v>1817</v>
       </c>
       <c r="T42" s="23">
-        <f>MAX(S42,T41)+T20</f>
+        <f t="shared" si="19"/>
         <v>1871</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickTop="1"/>
-    <row r="47" spans="1:20">
+    <row r="43" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q47">
         <v>718</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L48">
         <f>MAX(A23:T42)</f>
         <v>1981</v>
@@ -3025,24 +3027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
